--- a/DataSheet_Aguana.xlsx
+++ b/DataSheet_Aguana.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!shit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7797BB39-6C8E-4BFB-A517-A9D37D9061F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77A0F1B2-8D3E-4436-8DE2-155543A2323E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{41AB1AAB-BB05-4A43-9206-2F3E70589A3F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{41AB1AAB-BB05-4A43-9206-2F3E70589A3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -127,10 +127,10 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
@@ -451,7 +451,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,11 +496,11 @@
         <v>7</v>
       </c>
       <c r="C2" s="1">
-        <v>38894</v>
+        <v>39990</v>
       </c>
       <c r="D2" s="2">
         <f ca="1">IF(C2="","",DATEDIF(C2,TODAY(),"Y"))</f>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>

--- a/DataSheet_Aguana.xlsx
+++ b/DataSheet_Aguana.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!shit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77A0F1B2-8D3E-4436-8DE2-155543A2323E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{168F4E2C-9A01-42D4-A40A-42C8EE0D9072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{41AB1AAB-BB05-4A43-9206-2F3E70589A3F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{41AB1AAB-BB05-4A43-9206-2F3E70589A3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -73,6 +70,42 @@
   </si>
   <si>
     <t>+63 981 009 7097</t>
+  </si>
+  <si>
+    <t>Barcelona, Russel Raye A.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curilan, Karl Anthony D. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sta. Teresa, Chester Kian S.J </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabriel Juaquin P. Flores </t>
+  </si>
+  <si>
+    <t>Cainta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pasig </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antipolo </t>
+  </si>
+  <si>
+    <t>Marikina Heights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rayerussel@gmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sxveritas@gmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">kian082407@gmail.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">iipromisecom@gmail.com </t>
   </si>
 </sst>
 </file>
@@ -82,7 +115,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +130,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI Historic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -125,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -133,6 +177,9 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,7 +498,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -467,33 +514,33 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
       </c>
       <c r="C2" s="1">
         <v>39990</v>
@@ -503,43 +550,109 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="6" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D3" s="2" t="str">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="9">
+        <v>38683</v>
+      </c>
+      <c r="D3" s="2">
         <f t="shared" ref="D3:D40" ca="1" si="0">IF(C3="","",DATEDIF(C3,TODAY(),"Y"))</f>
-        <v/>
+        <v>19</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="8">
+        <v>9919681575</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
+      <c r="A4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="9">
+        <v>37908</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="8">
+        <v>9665523274</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
+      <c r="A5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="9">
+        <v>39318</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="8">
+        <v>9766003461</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D6" s="2" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
+      <c r="A6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="9">
+        <v>38921</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="8">
+        <v>9266548911</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">

--- a/DataSheet_Aguana.xlsx
+++ b/DataSheet_Aguana.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!shit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{168F4E2C-9A01-42D4-A40A-42C8EE0D9072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC5A0968-CFA5-4E7E-B83B-C979712C24D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{41AB1AAB-BB05-4A43-9206-2F3E70589A3F}"/>
   </bookViews>
